--- a/InputSample-TextFile.xlsx
+++ b/InputSample-TextFile.xlsx
@@ -52,9 +52,6 @@
     <t>Output file name</t>
   </si>
   <si>
-    <t>outputtest.xlsx</t>
-  </si>
-  <si>
     <t>Generate</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Sheet count:</t>
+  </si>
+  <si>
+    <t>outputtest.txt</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -630,12 +630,12 @@
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -657,41 +657,41 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -731,120 +731,120 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
